--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350992.9481078811</v>
+        <v>346855.464972967</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.462021563</v>
+        <v>6660456.462021566</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4925709.289371288</v>
+        <v>4925709.289371289</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5859242872241504</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>23.32779925082501</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082501</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.877148757990537</v>
       </c>
       <c r="F2" t="n">
-        <v>23.32779925082501</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.32779925082501</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.32779925082501</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.54712558012666</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>20.54712558012668</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.32779925082501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.32779925082501</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>19.70124719403651</v>
       </c>
       <c r="S4" t="n">
-        <v>23.32779925082501</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="T4" t="n">
-        <v>23.32779925082501</v>
+        <v>0.8458783860901734</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8458783860901523</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770259</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>36.39025468426205</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="V6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>36.39025468426209</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="U7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>17.84229754998328</v>
       </c>
     </row>
     <row r="8">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>37.06736141641883</v>
       </c>
       <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>358.5186212661606</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>204.9004856623729</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -1432,10 +1432,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09966912296455</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>161.0034146262886</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>176.1446634785938</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.2141160760826301</v>
       </c>
     </row>
     <row r="15">
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>24.48915671565004</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.7320934399557</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>359.9080475206273</v>
       </c>
       <c r="E17" t="n">
-        <v>202.3550953937511</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>31.66775530976515</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>137.0828845493175</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>304.6279919443824</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>170.845427842834</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.44040958154485</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>60.07073011995506</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>109.5540470185019</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>54.91274684145272</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>55.96684102370093</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.98658385867041</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>337.5675166653111</v>
+        <v>204.7168792811808</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2715,25 +2715,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>62.50002140993382</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>304.6279919443828</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>128.3640563204299</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>38.01997492189423</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>283.4389132533875</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>240.0089718343563</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>247.8633682502272</v>
       </c>
       <c r="V34" t="n">
-        <v>88.24074300591387</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>233.0988823279743</v>
+        <v>27.56154059003901</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>62.0329415750728</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.19117033386413</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3486,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>191.9853340645899</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>361.4649050157285</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>53.1911703338642</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>211.6139185576102</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>81.08753210161001</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>109.5540470185019</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>53.1911703338642</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>79.99783428205468</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>158.1311462694401</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>214.1917057867844</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>146.3917356253871</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -4191,19 +4191,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5646102646778</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.55652470014178</v>
+        <v>50.88920097000603</v>
       </c>
       <c r="C2" t="n">
-        <v>48.99309111344985</v>
+        <v>27.32576738331407</v>
       </c>
       <c r="D2" t="n">
-        <v>25.42965752675793</v>
+        <v>3.762333796622102</v>
       </c>
       <c r="E2" t="n">
-        <v>25.42965752675793</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940066001</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940066001</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940066001</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="I2" t="n">
         <v>4.300780394746091</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922406</v>
+        <v>10.55978981922408</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570121</v>
+        <v>19.94042246570124</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593592</v>
+        <v>31.57792675593597</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258584054</v>
+        <v>44.52689258584062</v>
       </c>
       <c r="N2" t="n">
-        <v>57.6853862206</v>
+        <v>57.6853862206001</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895373</v>
+        <v>70.11057862895385</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249753</v>
+        <v>80.71519288249766</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691197</v>
+        <v>88.67881654691212</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="W2" t="n">
-        <v>92.49614645473739</v>
+        <v>92.49614645473753</v>
       </c>
       <c r="X2" t="n">
-        <v>77.39408707445213</v>
+        <v>77.39408707445227</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.14836741450961</v>
+        <v>73.14836741450975</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.18432982991617</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="C3" t="n">
-        <v>22.62089624322424</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="D3" t="n">
-        <v>1.866223940066001</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="E3" t="n">
-        <v>1.866223940066001</v>
+        <v>69.74776341660819</v>
       </c>
       <c r="F3" t="n">
-        <v>1.866223940066001</v>
+        <v>46.18432982991623</v>
       </c>
       <c r="G3" t="n">
-        <v>1.866223940066001</v>
+        <v>22.62089624322427</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940066001</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="I3" t="n">
-        <v>16.87926407049471</v>
+        <v>3.224722227401255</v>
       </c>
       <c r="J3" t="n">
-        <v>20.60708720520664</v>
+        <v>6.952545362113186</v>
       </c>
       <c r="K3" t="n">
-        <v>26.97853070136229</v>
+        <v>13.32398885826885</v>
       </c>
       <c r="L3" t="n">
-        <v>35.54572276690771</v>
+        <v>21.89118092381428</v>
       </c>
       <c r="M3" t="n">
-        <v>58.64024402522445</v>
+        <v>31.88868997596173</v>
       </c>
       <c r="N3" t="n">
-        <v>68.90235739346559</v>
+        <v>42.15080334420288</v>
       </c>
       <c r="O3" t="n">
-        <v>78.2901862588255</v>
+        <v>51.53863220956281</v>
       </c>
       <c r="P3" t="n">
-        <v>85.82474656888945</v>
+        <v>59.07319251962678</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.86140060132323</v>
+        <v>70.21667574498339</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="S3" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="T3" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="U3" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="V3" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="W3" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="X3" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.74776341660809</v>
+        <v>93.31119700330017</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.42965752675793</v>
+        <v>48.99309111344994</v>
       </c>
       <c r="C4" t="n">
-        <v>25.42965752675793</v>
+        <v>48.99309111344994</v>
       </c>
       <c r="D4" t="n">
-        <v>25.42965752675793</v>
+        <v>48.99309111344994</v>
       </c>
       <c r="E4" t="n">
-        <v>25.42965752675793</v>
+        <v>25.42965752675797</v>
       </c>
       <c r="F4" t="n">
-        <v>25.42965752675793</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="G4" t="n">
-        <v>25.42965752675793</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="H4" t="n">
-        <v>25.42965752675793</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940066001</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="J4" t="n">
-        <v>4.20494037557662</v>
+        <v>4.204940375576627</v>
       </c>
       <c r="K4" t="n">
-        <v>8.048169904421384</v>
+        <v>8.048169904421398</v>
       </c>
       <c r="L4" t="n">
-        <v>17.25687322506806</v>
+        <v>12.96618052372714</v>
       </c>
       <c r="M4" t="n">
-        <v>40.35139448338482</v>
+        <v>18.15153316581402</v>
       </c>
       <c r="N4" t="n">
-        <v>63.44591574170157</v>
+        <v>24.02763322834981</v>
       </c>
       <c r="O4" t="n">
-        <v>86.54043700001833</v>
+        <v>47.1221544866666</v>
       </c>
       <c r="P4" t="n">
-        <v>90.54124495398943</v>
+        <v>70.21667574498339</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700330002</v>
+        <v>93.31119700330017</v>
       </c>
       <c r="R4" t="n">
-        <v>73.41094731235405</v>
+        <v>73.4109473123542</v>
       </c>
       <c r="S4" t="n">
-        <v>49.84751372566213</v>
+        <v>49.84751372566223</v>
       </c>
       <c r="T4" t="n">
-        <v>26.2840801389702</v>
+        <v>48.99309111344994</v>
       </c>
       <c r="U4" t="n">
-        <v>25.42965752675793</v>
+        <v>48.99309111344994</v>
       </c>
       <c r="V4" t="n">
-        <v>25.42965752675793</v>
+        <v>48.99309111344994</v>
       </c>
       <c r="W4" t="n">
-        <v>25.42965752675793</v>
+        <v>48.99309111344994</v>
       </c>
       <c r="X4" t="n">
-        <v>25.42965752675793</v>
+        <v>48.99309111344994</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.42965752675793</v>
+        <v>48.99309111344994</v>
       </c>
     </row>
     <row r="5">
@@ -4546,64 +4546,64 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064257</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549115</v>
       </c>
       <c r="E5" t="n">
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952741</v>
+        <v>7.922179662952684</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030271</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176024</v>
+        <v>35.56734164176018</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654182</v>
+        <v>56.13818908654176</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682888</v>
+        <v>79.02722044682882</v>
       </c>
       <c r="N5" t="n">
-        <v>102.286620264271</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529546</v>
+        <v>124.2498119529545</v>
       </c>
       <c r="P5" t="n">
-        <v>142.9948879228476</v>
+        <v>142.9948879228475</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.0716593183938</v>
+        <v>157.0716593183937</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="W5" t="n">
         <v>164.4449616415467</v>
@@ -4612,7 +4612,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.097182601319</v>
+        <v>145.0971826013189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J6" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K6" t="n">
-        <v>23.55833427601031</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L6" t="n">
-        <v>38.70199365651513</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M6" t="n">
-        <v>56.37392987329654</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N6" t="n">
-        <v>74.51358965724877</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O6" t="n">
-        <v>91.1078344893717</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P6" t="n">
-        <v>104.4261789416173</v>
+        <v>152.0267083864402</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>160.9296689482059</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="T6" t="n">
+        <v>165.2600121901093</v>
+      </c>
+      <c r="U6" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="U6" t="n">
-        <v>81.79535956884203</v>
-      </c>
       <c r="V6" t="n">
-        <v>40.06303325820834</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W6" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884197</v>
       </c>
       <c r="X6" t="n">
-        <v>3.305200243802188</v>
+        <v>40.0630332582083</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802188</v>
+        <v>40.0630332582083</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.3277230215631</v>
+        <v>86.76985286506954</v>
       </c>
       <c r="C7" t="n">
-        <v>21.3277230215631</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3277230215631</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="E7" t="n">
-        <v>21.3277230215631</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F7" t="n">
-        <v>21.3277230215631</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G7" t="n">
-        <v>21.3277230215631</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H7" t="n">
-        <v>21.3277230215631</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="J7" t="n">
-        <v>44.20705326085427</v>
+        <v>7.439194768028655</v>
       </c>
       <c r="K7" t="n">
-        <v>82.21448502239217</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L7" t="n">
-        <v>90.90772746153318</v>
+        <v>30.58622802477558</v>
       </c>
       <c r="M7" t="n">
-        <v>100.0735327310763</v>
+        <v>71.48808104182764</v>
       </c>
       <c r="N7" t="n">
-        <v>109.0213956378918</v>
+        <v>112.3899340588797</v>
       </c>
       <c r="O7" t="n">
-        <v>117.2861952859146</v>
+        <v>153.2917870759318</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3581591730573</v>
+        <v>160.3637509630745</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="R7" t="n">
-        <v>146.5247019534642</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="S7" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534641</v>
       </c>
       <c r="T7" t="n">
-        <v>104.7923756428305</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="U7" t="n">
-        <v>63.06004933219679</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="V7" t="n">
-        <v>63.06004933219679</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="W7" t="n">
-        <v>63.06004933219679</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="X7" t="n">
-        <v>21.3277230215631</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.3277230215631</v>
+        <v>86.76985286506954</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4792,7 +4792,7 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="G8" t="n">
         <v>3.305200243802188</v>
@@ -4801,7 +4801,7 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
-        <v>7.922179662952712</v>
+        <v>7.922179662952714</v>
       </c>
       <c r="J8" t="n">
         <v>18.98581709030268</v>
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>31.77020107089877</v>
+        <v>21.30816489997781</v>
       </c>
       <c r="J9" t="n">
-        <v>38.35962772912429</v>
+        <v>27.89759155820333</v>
       </c>
       <c r="K9" t="n">
-        <v>71.1588637208333</v>
+        <v>39.15997126554696</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133811</v>
+        <v>54.30363064605178</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>71.97556686283319</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>90.11522664678542</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>106.7094714789083</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>120.027815931154</v>
       </c>
       <c r="Q9" t="n">
         <v>160.929668948206</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U9" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T9" t="n">
-        <v>123.5276858794757</v>
-      </c>
-      <c r="U9" t="n">
-        <v>86.08590667097184</v>
-      </c>
       <c r="V9" t="n">
-        <v>44.35358036033816</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>44.35358036033816</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="F10" t="n">
         <v>3.305200243802188</v>
@@ -4971,13 +4971,13 @@
         <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>32.09166539295484</v>
+        <v>63.82771314046379</v>
       </c>
       <c r="N10" t="n">
-        <v>72.99351841000691</v>
+        <v>75.19150650798248</v>
       </c>
       <c r="O10" t="n">
-        <v>113.895371427059</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>81.79535956884203</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>81.79535956884203</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>40.06303325820834</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>40.06303325820834</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>40.06303325820834</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1279.031102697185</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C11" t="n">
-        <v>916.8910812162151</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="D11" t="n">
-        <v>480.9812963906596</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895474</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>653.679430407228</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>254.1767390867051</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5071,22 +5071,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1698.173566117875</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W11" t="n">
-        <v>1698.173566117875</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>1279.031102697185</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y11" t="n">
-        <v>1279.031102697185</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5120,22 +5120,22 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1088.893190137621</v>
+        <v>859.4385509106165</v>
       </c>
       <c r="C13" t="n">
-        <v>916.3314786208463</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D13" t="n">
-        <v>750.453485822369</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E13" t="n">
-        <v>580.6954820731062</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>403.9884280348624</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>239.2472476473808</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>106.9031870266967</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
@@ -5202,22 +5202,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1811.024103111652</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1524.068594982083</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1524.068594982083</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.711808856609</v>
+        <v>1278.676840315495</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.711808856609</v>
+        <v>1051.257169629604</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2360.327577447737</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C14" t="n">
-        <v>1922.18510463116</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D14" t="n">
-        <v>1486.275319805605</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E14" t="n">
-        <v>1052.5005749639</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F14" t="n">
-        <v>624.6331453731077</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>225.1304540525849</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5299,31 +5299,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X14" t="n">
-        <v>2360.327577447737</v>
+        <v>921.4750880558169</v>
       </c>
       <c r="Y14" t="n">
-        <v>2360.327577447737</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>756.6558446758912</v>
+        <v>944.4666516418563</v>
       </c>
       <c r="C16" t="n">
-        <v>584.0941331591162</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>584.0941331591162</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
         <v>584.0941331591162</v>
@@ -5442,16 +5442,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>733.4227107706877</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1317.603786189002</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150537</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675982</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2309.083038619499</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2066.835814522905</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1788.449182571648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.493674442079</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.46727002837</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>984.0755153617829</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y16" t="n">
-        <v>756.6558446758912</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1514.88554354214</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="C17" t="n">
-        <v>1514.88554354214</v>
+        <v>1114.246330190817</v>
       </c>
       <c r="D17" t="n">
-        <v>1078.975758716584</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E17" t="n">
-        <v>874.5766724602698</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X17" t="n">
-        <v>1941.185114027047</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y17" t="n">
-        <v>1941.185114027047</v>
+        <v>1552.388803007394</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851416</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C19" t="n">
-        <v>616.0817647851416</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D19" t="n">
-        <v>616.0817647851416</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
@@ -5679,7 +5679,7 @@
         <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092379</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M19" t="n">
         <v>1066.127311827553</v>
@@ -5691,7 +5691,7 @@
         <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5709,16 +5709,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>896.8524940391952</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2052.622535079674</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1614.480062263097</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1178.570277437541</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2187.756438212551</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2187.756438212551</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2187.756438212551</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y20" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>117.1314807487332</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>213.9315813162914</v>
       </c>
       <c r="L22" t="n">
-        <v>733.4227107706873</v>
+        <v>756.0122647025504</v>
       </c>
       <c r="M22" t="n">
-        <v>1317.603786189002</v>
+        <v>1340.193340120865</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150536</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O22" t="n">
         <v>2005.127382498298</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2299.650072276065</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951971</v>
+        <v>2057.402848179471</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000714</v>
+        <v>1779.016216228214</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871144</v>
+        <v>1492.060708098645</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457436</v>
+        <v>1220.034303684936</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.140739790848</v>
+        <v>974.6425490183487</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.140739790848</v>
+        <v>747.222878332457</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1893.561637177626</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C23" t="n">
-        <v>1455.41916436105</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D23" t="n">
-        <v>1019.509379535494</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E23" t="n">
-        <v>585.7346346937893</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F23" t="n">
-        <v>157.867205102997</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6019,22 +6019,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y23" t="n">
-        <v>2319.861207662534</v>
+        <v>2052.622535079674</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.196554659879</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C25" t="n">
-        <v>856.6348431431041</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>690.7568503446269</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E25" t="n">
-        <v>520.9988465953642</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>359.5348022487603</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L25" t="n">
-        <v>901.6154856350194</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M25" t="n">
-        <v>1485.796561053334</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N25" t="n">
-        <v>2055.554276014868</v>
+        <v>1755.480362387979</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1873.24624373574</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6177,22 +6177,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>2081.94094549648</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.98543736691</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1522.959032953202</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.567278286614</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>1221.015173378866</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1485.27551347728</v>
+        <v>1128.043535737734</v>
       </c>
       <c r="C26" t="n">
-        <v>1485.27551347728</v>
+        <v>689.9010629211575</v>
       </c>
       <c r="D26" t="n">
-        <v>1485.27551347728</v>
+        <v>253.991278095602</v>
       </c>
       <c r="E26" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
         <v>276.0532770435808</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W26" t="n">
-        <v>2319.861207662534</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X26" t="n">
-        <v>2319.861207662534</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="Y26" t="n">
-        <v>1911.575083962187</v>
+        <v>1128.043535737734</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.655226289377</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C28" t="n">
-        <v>408.5238915318681</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D28" t="n">
-        <v>242.6458987333908</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E28" t="n">
-        <v>242.6458987333908</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F28" t="n">
-        <v>242.6458987333908</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895474</v>
@@ -6387,22 +6387,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>464.1452239003837</v>
       </c>
       <c r="L28" t="n">
-        <v>326.783117436994</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M28" t="n">
-        <v>910.9641928553089</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N28" t="n">
-        <v>1480.721907816843</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>2005.127382498298</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2360.327577447737</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C29" t="n">
-        <v>1922.18510463116</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>1486.275319805605</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>1052.5005749639</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>624.6331453731077</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y29" t="n">
-        <v>2360.327577447737</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>890.8935156942559</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C31" t="n">
-        <v>718.3318041774809</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D31" t="n">
-        <v>552.4538113790036</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E31" t="n">
-        <v>382.6958076297408</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2917925571204</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376305</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U31" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V31" t="n">
-        <v>1408.311674774552</v>
+        <v>1651.212474421535</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.285270360843</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="X31" t="n">
-        <v>890.8935156942559</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1589.424503681217</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>1151.28203086464</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>1151.28203086464</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>717.5072860229352</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>289.6398564321429</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
         <v>47.20655154895474</v>
@@ -6697,7 +6697,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
         <v>276.0532770435809</v>
@@ -6706,7 +6706,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1997.710627381563</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>1589.424503681217</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>727.0944902899325</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
@@ -6861,22 +6861,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L34" t="n">
-        <v>839.4924998801315</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M34" t="n">
-        <v>970.0968922186609</v>
+        <v>962.1770767081742</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180195</v>
+        <v>1531.934791669708</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>2069.369922243251</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>2118.080353351143</v>
+        <v>1723.286776218785</v>
       </c>
       <c r="V34" t="n">
-        <v>2028.948289708806</v>
+        <v>1436.331268089216</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1164.304863675507</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>918.9131090089197</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>918.9131090089197</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1110.030088953173</v>
+        <v>513.1889643554698</v>
       </c>
       <c r="C35" t="n">
-        <v>1110.030088953173</v>
+        <v>75.04649153889312</v>
       </c>
       <c r="D35" t="n">
-        <v>1110.030088953173</v>
+        <v>75.04649153889312</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.030088953173</v>
+        <v>75.04649153889312</v>
       </c>
       <c r="F35" t="n">
-        <v>682.162659362381</v>
+        <v>75.04649153889312</v>
       </c>
       <c r="G35" t="n">
-        <v>282.6599680418581</v>
+        <v>75.04649153889312</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W35" t="n">
-        <v>1955.47212285877</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X35" t="n">
-        <v>1536.329659438081</v>
+        <v>921.4750880558164</v>
       </c>
       <c r="Y35" t="n">
-        <v>1536.329659438081</v>
+        <v>513.1889643554698</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043092</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
         <v>335.7952991210682</v>
@@ -7055,13 +7055,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.353309902451</v>
+        <v>989.073385369672</v>
       </c>
       <c r="C37" t="n">
-        <v>389.7915983856759</v>
+        <v>816.5116738528969</v>
       </c>
       <c r="D37" t="n">
-        <v>223.9136055871985</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2306.599122565046</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2064.351898468452</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.965266517195</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.009758387626</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1226.983353973917</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5915993073299</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="Y37" t="n">
-        <v>754.1719286214382</v>
+        <v>1180.892004088659</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1081.54685999802</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C38" t="n">
-        <v>1081.54685999802</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D38" t="n">
-        <v>1081.54685999802</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E38" t="n">
-        <v>1081.54685999802</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586987</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W38" t="n">
-        <v>1081.54685999802</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X38" t="n">
-        <v>1081.54685999802</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y38" t="n">
-        <v>1081.54685999802</v>
+        <v>1548.958133896014</v>
       </c>
     </row>
     <row r="39">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.5338374743685</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>749.9721259575934</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D40" t="n">
-        <v>584.0941331591162</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>100.9350064316459</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>100.9350064316459</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>100.9350064316459</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>733.4227107706877</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1887.361501150537</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
-        <v>922.5338374743685</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5338374743685</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1226.204821998794</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C41" t="n">
-        <v>1144.298223916359</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D41" t="n">
-        <v>1144.298223916359</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.298223916359</v>
+        <v>585.7346346937893</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>157.867205102997</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
@@ -7411,16 +7411,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7444,19 +7444,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y41" t="n">
-        <v>1652.504392483701</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.0944902899325</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>554.5327787731575</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6547859746801</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>100.9350064316459</v>
       </c>
       <c r="G43" t="n">
         <v>47.20655154895474</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.751453776091</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2279.52168423354</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.274460136947</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1758.88782818569</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1471.93232005612</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1199.905915642412</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>954.5141609758243</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>727.0944902899325</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1346.991198798029</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="C44" t="n">
-        <v>908.8487259814518</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F44" t="n">
         <v>47.20655154895474</v>
@@ -7645,16 +7645,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7684,16 +7684,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W44" t="n">
-        <v>1915.005753073567</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X44" t="n">
-        <v>1755.277322498375</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y44" t="n">
-        <v>1346.991198798029</v>
+        <v>916.8910812162151</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>725.0155228957786</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>555.257519146516</v>
       </c>
       <c r="F46" t="n">
         <v>407.3870791208724</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7839,19 +7839,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1973.653814855378</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.79246650817522</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13.22930525875689</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.168514336285682</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.85325743064647</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.334033031657518</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.09006930932311</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>18.21461082042998</v>
+        <v>0.8222661782269753</v>
       </c>
       <c r="O4" t="n">
-        <v>18.60494214182591</v>
+        <v>18.60494214182593</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>19.28657909529866</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.52986788788506</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>21.7544002872377</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.14042390876192</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>36.94091896479667</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>37.13925100285415</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>31.52930186393523</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.73774535491301</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>32.05661388637265</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>32.27675768710763</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>32.96672057477704</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.36928463638102</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>15.75922928236025</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>32.32211359119833</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>32.05661388637267</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710764</v>
+        <v>2.440333798690091</v>
       </c>
       <c r="O10" t="n">
-        <v>32.96672057477707</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3.425074604904665</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638103</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8856,13 +8856,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>45.75904403825086</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042868</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>11.13057120969228</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>45.75904403825052</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>70.75030430845902</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>458.1582657371571</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>410.7470639734274</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>152.9002451589012</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10521,13 +10521,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>105.0002374943219</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>45.75904403825082</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11232,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>10.62967161639993</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464597</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.45065049283454</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.43324883758591</v>
+        <v>10.43324883758588</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726474898</v>
+        <v>8.222887726474863</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>27.55984863529722</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2609560440593164</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>75.24242682225037</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>62.12385027915576</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.364664575149881</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.5993510054558</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>90.87967246293482</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>403.9891463872605</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.3469376859573</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>92.25017967085211</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>71.64263945667255</v>
       </c>
       <c r="E17" t="n">
-        <v>227.0819019995367</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,13 +23791,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>136.392668402005</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>88.0625894297153</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>117.4085828356763</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>38.80811117274487</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24031,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>149.4600229502524</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.91154299085277</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>285.9536173888157</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>349.2905156218904</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24417,7 +24417,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.1588901203624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>91.86948072797668</v>
+        <v>224.720118112107</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -24505,10 +24505,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.3360729916735</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>90.87967246293485</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24742,10 +24742,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>272.4428437226471</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.9200085759671</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.647039794886382</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>155.4986925729613</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24976,16 +24976,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>27.73939738151719</v>
       </c>
       <c r="V34" t="n">
-        <v>195.84521004236</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25165,13 +25165,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>33.92545361355432</v>
+        <v>239.4627953514896</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1862712954197</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>89.79110277694367</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>230.0512407154688</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>62.12385027915582</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.27316336425023</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>31.32391856231146</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>352.6735159868009</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>285.9536173888157</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>109.9025982497426</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>62.98443882875313</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,16 +25867,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -25924,16 +25924,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>256.8198925170423</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>190.0115566765587</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>28.54824787247421</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>54.7415301048936</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>367289.2431944339</v>
+        <v>367289.243194434</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367289.243194434</v>
+        <v>367289.2431944339</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367289.243194434</v>
+        <v>367289.2431944339</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367289.243194434</v>
+        <v>367289.2431944339</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367289.2431944339</v>
+        <v>367289.243194434</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367289.243194434</v>
+        <v>367289.2431944339</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331619.2890919166</v>
+        <v>331619.2890919167</v>
       </c>
       <c r="C2" t="n">
+        <v>335092.0749315052</v>
+      </c>
+      <c r="D2" t="n">
         <v>335092.0749315053</v>
       </c>
-      <c r="D2" t="n">
-        <v>335092.0749315051</v>
-      </c>
       <c r="E2" t="n">
-        <v>196621.9641260216</v>
+        <v>196621.9641260217</v>
       </c>
       <c r="F2" t="n">
         <v>196621.9641260216</v>
@@ -26334,13 +26334,13 @@
         <v>196621.9641260216</v>
       </c>
       <c r="I2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="J2" t="n">
         <v>196621.9641260217</v>
       </c>
       <c r="K2" t="n">
-        <v>196621.9641260217</v>
+        <v>196621.9641260216</v>
       </c>
       <c r="L2" t="n">
         <v>196621.9641260217</v>
@@ -26349,7 +26349,7 @@
         <v>196621.9641260216</v>
       </c>
       <c r="N2" t="n">
-        <v>196621.9641260216</v>
+        <v>196621.9641260217</v>
       </c>
       <c r="O2" t="n">
         <v>196621.9641260217</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150168971</v>
+        <v>25672.80150168974</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088724</v>
+        <v>18763.31828088721</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>512485.5095559817</v>
+        <v>512485.5095559818</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707182858</v>
+        <v>6103.578707182897</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749686</v>
+        <v>4629.330666749646</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>294007.7252991569</v>
       </c>
       <c r="D4" t="n">
-        <v>294007.7252991569</v>
+        <v>294007.725299157</v>
       </c>
       <c r="E4" t="n">
         <v>13837.4771430886</v>
       </c>
       <c r="F4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308861</v>
       </c>
       <c r="G4" t="n">
         <v>13837.4771430886</v>
@@ -26438,19 +26438,19 @@
         <v>13837.4771430886</v>
       </c>
       <c r="I4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="J4" t="n">
         <v>13837.4771430886</v>
       </c>
       <c r="K4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="L4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="M4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="N4" t="n">
         <v>13837.4771430886</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413288</v>
+        <v>35449.86995413289</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26484,25 +26484,25 @@
         <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25556.18418228719</v>
+        <v>-25570.0753256455</v>
       </c>
       <c r="C6" t="n">
         <v>-14532.53845874905</v>
       </c>
       <c r="D6" t="n">
-        <v>4230.779822138102</v>
+        <v>4230.77982213816</v>
       </c>
       <c r="E6" t="n">
-        <v>-375752.1037826865</v>
+        <v>-376305.9842259085</v>
       </c>
       <c r="F6" t="n">
-        <v>136733.4057732952</v>
+        <v>136179.5253300733</v>
       </c>
       <c r="G6" t="n">
-        <v>136733.4057732952</v>
+        <v>136179.5253300733</v>
       </c>
       <c r="H6" t="n">
-        <v>136733.4057732952</v>
+        <v>136179.5253300733</v>
       </c>
       <c r="I6" t="n">
-        <v>136733.4057732953</v>
+        <v>136179.5253300733</v>
       </c>
       <c r="J6" t="n">
-        <v>130629.8270661124</v>
+        <v>130075.9466228904</v>
       </c>
       <c r="K6" t="n">
-        <v>132104.0751065456</v>
+        <v>131550.1946633236</v>
       </c>
       <c r="L6" t="n">
-        <v>136733.4057732953</v>
+        <v>136179.5253300733</v>
       </c>
       <c r="M6" t="n">
-        <v>-21.49860982023529</v>
+        <v>-575.3790530421189</v>
       </c>
       <c r="N6" t="n">
-        <v>136733.4057732952</v>
+        <v>136179.5253300733</v>
       </c>
       <c r="O6" t="n">
-        <v>136733.4057732953</v>
+        <v>136179.5253300733</v>
       </c>
       <c r="P6" t="n">
-        <v>136733.4057732953</v>
+        <v>136179.5253300733</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443691</v>
+        <v>18.52934677443694</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26746,7 +26746,7 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26755,7 +26755,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082501</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
@@ -26804,25 +26804,25 @@
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443691</v>
+        <v>18.52934677443694</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613469</v>
+        <v>14.22375528613466</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9488260326495</v>
+        <v>433.9488260326497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082501</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670234</v>
+        <v>17.98720379670229</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082501</v>
+        <v>23.32779925082516</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670234</v>
+        <v>17.98720379670218</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082501</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670234</v>
+        <v>17.98720379670229</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.76306281814051</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>82.06409730089912</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>73.59226038478562</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>69.85141127549078</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>59.22220074917496</v>
       </c>
       <c r="G3" t="n">
-        <v>84.49138326039709</v>
+        <v>61.16358400957205</v>
       </c>
       <c r="H3" t="n">
-        <v>40.93337470348446</v>
+        <v>20.38624912335778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>101.8931221777464</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>144.7326244609451</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>151.6121842470363</v>
       </c>
       <c r="G4" t="n">
         <v>163.90194864828</v>
@@ -27557,7 +27557,7 @@
         <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>63.44071311946219</v>
+        <v>86.7685123702872</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.7388482597879</v>
+        <v>133.7388482597878</v>
       </c>
       <c r="T4" t="n">
-        <v>219.9500856084062</v>
+        <v>242.432006473141</v>
       </c>
       <c r="U4" t="n">
-        <v>274.8009697946364</v>
+        <v>275.6468481807266</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>83.70060738470346</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27748,19 +27748,19 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T6" t="n">
-        <v>87.27789097014248</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U6" t="n">
         <v>133.2535436095709</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>147.0792720398758</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27776,13 +27776,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27794,7 +27794,7 @@
         <v>137.9780290613614</v>
       </c>
       <c r="I7" t="n">
-        <v>68.15486756642629</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T7" t="n">
-        <v>243.1682919906331</v>
+        <v>201.8532889431057</v>
       </c>
       <c r="U7" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -27839,10 +27839,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>207.3031764290495</v>
       </c>
     </row>
     <row r="8">
@@ -27949,7 +27949,7 @@
         <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>137.5011852406794</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
         <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28013,16 +28013,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>157.097685947878</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
         <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.7552192947707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914328</v>
+        <v>0.07448983627914341</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937764</v>
+        <v>0.7628690357937776</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151674</v>
+        <v>2.871769413151679</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896943</v>
+        <v>6.322231741896954</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593079</v>
+        <v>9.475386511593097</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862091</v>
+        <v>11.75505483862093</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455013</v>
+        <v>13.07976346455015</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187824</v>
+        <v>13.29140771187827</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237751</v>
+        <v>12.55069940237753</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923616</v>
+        <v>10.71173156923618</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489339</v>
+        <v>8.044064307489354</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169739</v>
+        <v>4.679172178169747</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144210979</v>
+        <v>1.697437144210982</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119499</v>
+        <v>0.3260792583119504</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331461</v>
+        <v>0.005959186902331472</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086429</v>
+        <v>0.03985557608086436</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651894</v>
+        <v>0.38492095846519</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257828</v>
+        <v>1.37222049225783</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850429</v>
+        <v>3.765477913850436</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268336</v>
+        <v>6.435801511268347</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136785</v>
+        <v>8.653729359136799</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206811</v>
+        <v>10.09849399206813</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903145</v>
+        <v>10.36577107903147</v>
       </c>
       <c r="O3" t="n">
-        <v>9.48265541955546</v>
+        <v>9.482655419555478</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862586</v>
+        <v>7.610666979862599</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690677</v>
+        <v>5.087529325690686</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178575</v>
+        <v>2.474541820178579</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862287</v>
+        <v>0.74029984518623</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312029</v>
+        <v>0.1606459404312032</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741073</v>
+        <v>0.002622077373741077</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062392</v>
+        <v>0.03341357615062399</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573657</v>
+        <v>0.2970770679573662</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784218</v>
+        <v>1.00483736278422</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849112</v>
+        <v>2.362339833849116</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136124</v>
+        <v>3.882050029136131</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248216</v>
+        <v>4.967687494248224</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501893</v>
+        <v>5.237729941501902</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430395026</v>
+        <v>5.113188430395035</v>
       </c>
       <c r="O4" t="n">
-        <v>4.7228571089991</v>
+        <v>4.722857108999108</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526369</v>
+        <v>4.041220155526376</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939973</v>
+        <v>2.797931362939977</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645326</v>
+        <v>1.502395887645329</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704186</v>
+        <v>0.5823075043704196</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981204</v>
+        <v>0.1427670980981206</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124943</v>
+        <v>0.001822558699124947</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31755,13 +31755,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -31770,10 +31770,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917233</v>
@@ -31864,16 +31864,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T12" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32788,7 +32788,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -33280,7 +33280,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33736,7 +33736,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34465,7 +34465,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020277</v>
+        <v>2.459147934020281</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896943</v>
+        <v>6.322231741896957</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593079</v>
+        <v>9.475386511593097</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862091</v>
+        <v>11.75505483862093</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455013</v>
+        <v>13.07976346455015</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187824</v>
+        <v>13.29140771187826</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237751</v>
+        <v>12.55069940237752</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923616</v>
+        <v>10.71173156923618</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489336</v>
+        <v>8.04406430748935</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169736</v>
+        <v>4.67917217816975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.16468700043304</v>
+        <v>1.37222049225783</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850429</v>
+        <v>3.765477913850436</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268338</v>
+        <v>6.435801511268346</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136783</v>
+        <v>8.653729359136797</v>
       </c>
       <c r="M3" t="n">
-        <v>23.327799250825</v>
+        <v>10.09849399206813</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903145</v>
+        <v>10.36577107903148</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555456</v>
+        <v>9.482655419555478</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862586</v>
+        <v>7.6106669798626</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690682</v>
+        <v>11.25604366197637</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178572</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849111</v>
+        <v>2.362339833849116</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136124</v>
+        <v>3.882050029136131</v>
       </c>
       <c r="L4" t="n">
-        <v>9.301720525905735</v>
+        <v>4.967687494248224</v>
       </c>
       <c r="M4" t="n">
-        <v>23.32779925082501</v>
+        <v>5.237729941501902</v>
       </c>
       <c r="N4" t="n">
-        <v>23.32779925082501</v>
+        <v>5.93545460862201</v>
       </c>
       <c r="O4" t="n">
-        <v>23.32779925082501</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526375</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939977</v>
+        <v>23.32779925082504</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.17539134075754</v>
+        <v>11.17539134075755</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844194</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -35032,13 +35032,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P6" t="n">
-        <v>13.45287318408647</v>
+        <v>35.20727347132419</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.13331336509094</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752735</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K7" t="n">
-        <v>38.39134521367465</v>
+        <v>6.862043349739428</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829314</v>
+        <v>16.51879832374232</v>
       </c>
       <c r="M7" t="n">
-        <v>9.258389161154682</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="N7" t="n">
-        <v>9.038245360419708</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O7" t="n">
-        <v>8.348282472750284</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P7" t="n">
         <v>7.143397865800722</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>4.945718411146316</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.75252608797635</v>
+        <v>18.18481278401579</v>
       </c>
       <c r="J9" t="n">
         <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
-        <v>33.13054140576667</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
         <v>15.29662563687356</v>
@@ -35269,10 +35269,10 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R9" t="n">
         <v>4.37408408273069</v>
@@ -35339,16 +35339,16 @@
         <v>8.781052968829309</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154689</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752735</v>
+        <v>11.4785791591098</v>
       </c>
       <c r="O10" t="n">
-        <v>41.31500304752736</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
-        <v>10.56847247070539</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35488,25 +35488,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35570,28 +35570,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512696</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,22 +35655,22 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>170.8810658749154</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36044,19 +36044,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409514</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
@@ -36135,7 +36135,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>70.63124161593785</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>170.8810658749151</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>168.5281836696289</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>404.8918886914878</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36755,25 +36755,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>361.6495036861069</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
-        <v>529.7024996782372</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362901</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,16 +37068,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>278.0222669955657</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
@@ -37241,13 +37241,13 @@
         <v>575.512843395489</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>206.7871629263254</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37320,7 +37320,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,13 +37542,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>170.8810658749154</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,13 +37788,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
         <v>547.556245844706</v>
@@ -37952,13 +37952,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.10166275847632</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
